--- a/data/countries_wos.xlsx
+++ b/data/countries_wos.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,7 +393,7 @@
         <v>PEOPLES R CHINA</v>
       </c>
       <c r="B2">
-        <v>5282</v>
+        <v>5404</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         <v>USA</v>
       </c>
       <c r="B3">
-        <v>1232</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="4">
@@ -409,7 +409,7 @@
         <v>INDIA</v>
       </c>
       <c r="B4">
-        <v>575</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +417,7 @@
         <v>SOUTH KOREA</v>
       </c>
       <c r="B5">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         <v>GERMANY</v>
       </c>
       <c r="B6">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +433,7 @@
         <v>ENGLAND</v>
       </c>
       <c r="B7">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>IRAN</v>
       </c>
       <c r="B8">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9">
@@ -449,7 +449,7 @@
         <v>ITALY</v>
       </c>
       <c r="B9">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10">
@@ -457,7 +457,7 @@
         <v>CANADA</v>
       </c>
       <c r="B10">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11">
@@ -465,23 +465,23 @@
         <v>AUSTRALIA</v>
       </c>
       <c r="B11">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>JAPAN</v>
+        <v>NETHERLANDS</v>
       </c>
       <c r="B12">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>NETHERLANDS</v>
+        <v>JAPAN</v>
       </c>
       <c r="B13">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14">
@@ -489,7 +489,7 @@
         <v>BELGIUM</v>
       </c>
       <c r="B14">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15">
@@ -497,7 +497,7 @@
         <v>SPAIN</v>
       </c>
       <c r="B15">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
@@ -505,7 +505,7 @@
         <v>FRANCE</v>
       </c>
       <c r="B16">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
@@ -513,23 +513,23 @@
         <v>SINGAPORE</v>
       </c>
       <c r="B17">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>SAUDI ARABIA</v>
+        <v>RUSSIA</v>
       </c>
       <c r="B18">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>RUSSIA</v>
+        <v>SAUDI ARABIA</v>
       </c>
       <c r="B19">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
@@ -537,23 +537,23 @@
         <v>MALAYSIA</v>
       </c>
       <c r="B20">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>BRAZIL</v>
+        <v>TAIWAN</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>TAIWAN</v>
+        <v>BRAZIL</v>
       </c>
       <c r="B22">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -561,7 +561,7 @@
         <v>TURKEY</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
@@ -569,7 +569,7 @@
         <v>POLAND</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -577,23 +577,23 @@
         <v>PAKISTAN</v>
       </c>
       <c r="B25">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>SWITZERLAND</v>
+        <v>EGYPT</v>
       </c>
       <c r="B26">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>EGYPT</v>
+        <v>SWITZERLAND</v>
       </c>
       <c r="B27">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
@@ -609,7 +609,7 @@
         <v>THAILAND</v>
       </c>
       <c r="B29">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30">
@@ -617,7 +617,7 @@
         <v>PORTUGAL</v>
       </c>
       <c r="B30">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
@@ -625,7 +625,7 @@
         <v>TURKIYE</v>
       </c>
       <c r="B31">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
@@ -638,34 +638,34 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>QATAR</v>
+        <v>CHILE</v>
       </c>
       <c r="B33">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>FINLAND</v>
+        <v>QATAR</v>
       </c>
       <c r="B34">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>CHILE</v>
+        <v>FINLAND</v>
       </c>
       <c r="B35">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>ISRAEL</v>
+        <v>CZECH REPUBLIC</v>
       </c>
       <c r="B36">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
@@ -673,15 +673,15 @@
         <v>WALES</v>
       </c>
       <c r="B37">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>CZECH REPUBLIC</v>
+        <v>ISRAEL</v>
       </c>
       <c r="B38">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
@@ -689,7 +689,7 @@
         <v>IRAQ</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
@@ -697,7 +697,7 @@
         <v>VIETNAM</v>
       </c>
       <c r="B40">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
@@ -705,7 +705,7 @@
         <v>AUSTRIA</v>
       </c>
       <c r="B41">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
@@ -729,12 +729,12 @@
         <v>DENMARK</v>
       </c>
       <c r="B44">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>ROMANIA</v>
+        <v>INDONESIA</v>
       </c>
       <c r="B45">
         <v>28</v>
@@ -745,31 +745,31 @@
         <v>NORWAY</v>
       </c>
       <c r="B46">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>NEW ZEALAND</v>
+        <v>ROMANIA</v>
       </c>
       <c r="B47">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>NIGERIA</v>
+        <v>NEW ZEALAND</v>
       </c>
       <c r="B48">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>INDONESIA</v>
+        <v>NIGERIA</v>
       </c>
       <c r="B49">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
@@ -777,12 +777,12 @@
         <v>IRELAND</v>
       </c>
       <c r="B50">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>SOUTH AFRICA</v>
+        <v>ARGENTINA</v>
       </c>
       <c r="B51">
         <v>21</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>ARGENTINA</v>
+        <v>SOUTH AFRICA</v>
       </c>
       <c r="B52">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -801,7 +801,7 @@
         <v>MEXICO</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -841,12 +841,12 @@
         <v>CROATIA</v>
       </c>
       <c r="B58">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>HUNGARY</v>
+        <v>ETHIOPIA</v>
       </c>
       <c r="B59">
         <v>11</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>UKRAINE</v>
+        <v>HUNGARY</v>
       </c>
       <c r="B60">
         <v>11</v>
@@ -862,23 +862,23 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>SLOVAKIA</v>
+        <v>UKRAINE</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>ETHIOPIA</v>
+        <v>SLOVAKIA</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>JORDAN</v>
+        <v>COLOMBIA</v>
       </c>
       <c r="B63">
         <v>9</v>
@@ -886,10 +886,10 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>COLOMBIA</v>
+        <v>JORDAN</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -897,7 +897,7 @@
         <v>LUXEMBOURG</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
@@ -905,7 +905,7 @@
         <v>LATVIA</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -926,7 +926,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>BOSNIA HERCEG</v>
+        <v>ALGERIA</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>CYPRUS</v>
+        <v>BOSNIA HERCEG</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -942,31 +942,31 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>KAZAKHSTAN</v>
+        <v>CYPRUS</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>ALGERIA</v>
+        <v>KAZAKHSTAN</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>ARMENIA</v>
+        <v>MALTA</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>BELARUS</v>
+        <v>ARMENIA</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>BRUNEI</v>
+        <v>BELARUS</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>ESTONIA</v>
+        <v>BRUNEI</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>LIBYA</v>
+        <v>ESTONIA</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>MALTA</v>
+        <v>LIBYA</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>SUDAN</v>
+        <v>PERU</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>TUNISIA</v>
+        <v>SUDAN</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -1078,23 +1078,23 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>AZERBAIJAN</v>
+        <v>TUNISIA</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>ECUADOR</v>
+        <v>YEMEN</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>KENYA</v>
+        <v>AZERBAIJAN</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>LEBANON</v>
+        <v>ECUADOR</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>NEPAL</v>
+        <v>KENYA</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>NORTH MACEDONIA</v>
+        <v>LEBANON</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>PALESTINE</v>
+        <v>NEPAL</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>PERU</v>
+        <v>NORTH MACEDONIA</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>TANZANIA</v>
+        <v>PALESTINE</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>VENEZUELA</v>
+        <v>TANZANIA</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>YEMEN</v>
+        <v>VENEZUELA</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>CAMBODIA</v>
+        <v>BURUNDI</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>GEORGIA</v>
+        <v>CAMBODIA</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>ICELAND</v>
+        <v>GAMBIA</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>MALAWI</v>
+        <v>GEORGIA</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>MOLDOVA</v>
+        <v>ICELAND</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>PARAGUAY</v>
+        <v>MALAWI</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>SRI LANKA</v>
+        <v>MOLDOVA</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>UGANDA</v>
+        <v>PARAGUAY</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -1246,15 +1246,31 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>ZAMBIA</v>
+        <v>SRI LANKA</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>UGANDA</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>ZAMBIA</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B109"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B111"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/countries_wos.xlsx
+++ b/data/countries_wos.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,7 +393,7 @@
         <v>PEOPLES R CHINA</v>
       </c>
       <c r="B2">
-        <v>5404</v>
+        <v>9762</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         <v>USA</v>
       </c>
       <c r="B3">
-        <v>1258</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="4">
@@ -409,103 +409,103 @@
         <v>INDIA</v>
       </c>
       <c r="B4">
-        <v>597</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>SOUTH KOREA</v>
+        <v>GERMANY</v>
       </c>
       <c r="B5">
-        <v>483</v>
+        <v>979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>GERMANY</v>
+        <v>SOUTH KOREA</v>
       </c>
       <c r="B6">
-        <v>415</v>
+        <v>888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>ENGLAND</v>
+        <v>JAPAN</v>
       </c>
       <c r="B7">
-        <v>353</v>
+        <v>739</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>IRAN</v>
+        <v>ENGLAND</v>
       </c>
       <c r="B8">
-        <v>317</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>ITALY</v>
+        <v>NETHERLANDS</v>
       </c>
       <c r="B9">
-        <v>268</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>CANADA</v>
+        <v>IRAN</v>
       </c>
       <c r="B10">
-        <v>262</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>AUSTRALIA</v>
+        <v>CANADA</v>
       </c>
       <c r="B11">
-        <v>256</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>NETHERLANDS</v>
+        <v>FRANCE</v>
       </c>
       <c r="B12">
-        <v>248</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>JAPAN</v>
+        <v>ITALY</v>
       </c>
       <c r="B13">
-        <v>246</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>BELGIUM</v>
+        <v>AUSTRALIA</v>
       </c>
       <c r="B14">
-        <v>218</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>SPAIN</v>
+        <v>BELGIUM</v>
       </c>
       <c r="B15">
-        <v>205</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>FRANCE</v>
+        <v>SPAIN</v>
       </c>
       <c r="B16">
-        <v>182</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17">
@@ -513,7 +513,7 @@
         <v>SINGAPORE</v>
       </c>
       <c r="B17">
-        <v>145</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18">
@@ -521,79 +521,79 @@
         <v>RUSSIA</v>
       </c>
       <c r="B18">
-        <v>126</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>SAUDI ARABIA</v>
+        <v>TAIWAN</v>
       </c>
       <c r="B19">
-        <v>121</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>MALAYSIA</v>
+        <v>SAUDI ARABIA</v>
       </c>
       <c r="B20">
-        <v>117</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>TAIWAN</v>
+        <v>TURKEY</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>BRAZIL</v>
+        <v>SWITZERLAND</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>TURKEY</v>
+        <v>BRAZIL</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>POLAND</v>
+        <v>MALAYSIA</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>PAKISTAN</v>
+        <v>POLAND</v>
       </c>
       <c r="B25">
-        <v>87</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>EGYPT</v>
+        <v>PORTUGAL</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>SWITZERLAND</v>
+        <v>EGYPT</v>
       </c>
       <c r="B27">
-        <v>79</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28">
@@ -601,135 +601,135 @@
         <v>SWEDEN</v>
       </c>
       <c r="B28">
-        <v>70</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>THAILAND</v>
+        <v>PAKISTAN</v>
       </c>
       <c r="B29">
-        <v>64</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>PORTUGAL</v>
+        <v>THAILAND</v>
       </c>
       <c r="B30">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>TURKIYE</v>
+        <v>ISRAEL</v>
       </c>
       <c r="B31">
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>GREECE</v>
+        <v>FINLAND</v>
       </c>
       <c r="B32">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>CHILE</v>
+        <v>GREECE</v>
       </c>
       <c r="B33">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>QATAR</v>
+        <v>TURKIYE</v>
       </c>
       <c r="B34">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>FINLAND</v>
+        <v>CZECH REPUBLIC</v>
       </c>
       <c r="B35">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>CZECH REPUBLIC</v>
+        <v>DENMARK</v>
       </c>
       <c r="B36">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>WALES</v>
+        <v>ROMANIA</v>
       </c>
       <c r="B37">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>ISRAEL</v>
+        <v>AUSTRIA</v>
       </c>
       <c r="B38">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>IRAQ</v>
+        <v>SCOTLAND</v>
       </c>
       <c r="B39">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>VIETNAM</v>
+        <v>WALES</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>AUSTRIA</v>
+        <v>CHILE</v>
       </c>
       <c r="B41">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>SCOTLAND</v>
+        <v>QATAR</v>
       </c>
       <c r="B42">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>U ARAB EMIRATES</v>
+        <v>VIETNAM</v>
       </c>
       <c r="B43">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>DENMARK</v>
+        <v>NORWAY</v>
       </c>
       <c r="B44">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
@@ -737,55 +737,55 @@
         <v>INDONESIA</v>
       </c>
       <c r="B45">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>NORWAY</v>
+        <v>IRELAND</v>
       </c>
       <c r="B46">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>ROMANIA</v>
+        <v>U ARAB EMIRATES</v>
       </c>
       <c r="B47">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>NEW ZEALAND</v>
+        <v>IRAQ</v>
       </c>
       <c r="B48">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>NIGERIA</v>
+        <v>ARGENTINA</v>
       </c>
       <c r="B49">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>IRELAND</v>
+        <v>NEW ZEALAND</v>
       </c>
       <c r="B50">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>ARGENTINA</v>
+        <v>NIGERIA</v>
       </c>
       <c r="B51">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
@@ -793,7 +793,7 @@
         <v>SOUTH AFRICA</v>
       </c>
       <c r="B52">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
@@ -801,292 +801,292 @@
         <v>MEXICO</v>
       </c>
       <c r="B53">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>BANGLADESH</v>
+        <v>HUNGARY</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>SERBIA</v>
+        <v>BANGLADESH</v>
       </c>
       <c r="B55">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>SLOVENIA</v>
+        <v>SERBIA</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>LITHUANIA</v>
+        <v>SLOVENIA</v>
       </c>
       <c r="B57">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>CROATIA</v>
+        <v>UKRAINE</v>
       </c>
       <c r="B58">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>ETHIOPIA</v>
+        <v>LITHUANIA</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>HUNGARY</v>
+        <v>CROATIA</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>UKRAINE</v>
+        <v>LUXEMBOURG</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>SLOVAKIA</v>
+        <v>ETHIOPIA</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>COLOMBIA</v>
+        <v>SLOVAKIA</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>JORDAN</v>
+        <v>CYPRUS</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>LUXEMBOURG</v>
+        <v>KAZAKHSTAN</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>LATVIA</v>
+        <v>MOROCCO</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>MOROCCO</v>
+        <v>BELARUS</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>NORTH IRELAND</v>
+        <v>BULGARIA</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>ALGERIA</v>
+        <v>JORDAN</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>BOSNIA HERCEG</v>
+        <v>LATVIA</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>CYPRUS</v>
+        <v>NORTH IRELAND</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>KAZAKHSTAN</v>
+        <v>ALGERIA</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>MALTA</v>
+        <v>COLOMBIA</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>ARMENIA</v>
+        <v>PHILIPPINES</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>BELARUS</v>
+        <v>TUNISIA</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>BRUNEI</v>
+        <v>ESTONIA</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>ESTONIA</v>
+        <v>UZBEKISTAN</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>LIBYA</v>
+        <v>ARMENIA</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>PHILIPPINES</v>
+        <v>BOSNIA HERCEG</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>UZBEKISTAN</v>
+        <v>PERU</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>BULGARIA</v>
+        <v>KUWAIT</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>COSTA RICA</v>
+        <v>LIBYA</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>KOSOVO</v>
+        <v>AZERBAIJAN</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>KUWAIT</v>
+        <v>BRUNEI</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>OMAN</v>
+        <v>ECUADOR</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>PERU</v>
+        <v>MALTA</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>SUDAN</v>
+        <v>OMAN</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>TUNISIA</v>
+        <v>SUDAN</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>YEMEN</v>
+        <v>BAHRAIN</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -1094,26 +1094,26 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>AZERBAIJAN</v>
+        <v>COSTA RICA</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>ECUADOR</v>
+        <v>KENYA</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>KENYA</v>
+        <v>KOSOVO</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -1121,44 +1121,44 @@
         <v>LEBANON</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>NEPAL</v>
+        <v>NORTH MACEDONIA</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>NORTH MACEDONIA</v>
+        <v>SRI LANKA</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>PALESTINE</v>
+        <v>VENEZUELA</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>TANZANIA</v>
+        <v>YEMEN</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>VENEZUELA</v>
+        <v>BOTSWANA</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -1166,55 +1166,55 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>ALBANIA</v>
+        <v>GEORGIA</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>BAHRAIN</v>
+        <v>GHANA</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>BURUNDI</v>
+        <v>ICELAND</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>CAMBODIA</v>
+        <v>NEPAL</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>GAMBIA</v>
+        <v>PALESTINE</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>GEORGIA</v>
+        <v>TANZANIA</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>ICELAND</v>
+        <v>ALBANIA</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>MALAWI</v>
+        <v>BAHAMAS</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>MOLDOVA</v>
+        <v>CAMBODIA</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>PARAGUAY</v>
+        <v>COTE IVOIRE</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>SRI LANKA</v>
+        <v>CUBA</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>UGANDA</v>
+        <v>MALAWI</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1262,15 +1262,71 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>ZAMBIA</v>
+        <v>MAURITIUS</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>MOLDOVA</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>MONGOLIA</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>PARAGUAY</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>SYRIA</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>UGANDA</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>URUGUAY</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>ZAMBIA</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B111"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B118"/>
   </ignoredErrors>
 </worksheet>
 </file>